--- a/src/Controllers/Sheet/outputs/report-yesterday-today-template.xlsx
+++ b/src/Controllers/Sheet/outputs/report-yesterday-today-template.xlsx
@@ -73,7 +73,7 @@
     <t xml:space="preserve">Dólar</t>
   </si>
   <si>
-    <t xml:space="preserve">21:57</t>
+    <t xml:space="preserve">22:19</t>
   </si>
 </sst>
 </file>
